--- a/bacs_site_occ.xlsx
+++ b/bacs_site_occ.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="9240"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="19875" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bacs_site_occ" sheetId="1" r:id="rId1"/>
+    <sheet name="bacs_habi_date_time" sheetId="2" r:id="rId2"/>
+    <sheet name="bacs_hab_date_time" sheetId="4" r:id="rId3"/>
+    <sheet name="combinations" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">combinations!$A$4:$J$85</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>mean</t>
   </si>
@@ -84,11 +90,113 @@
   <si>
     <t>U95CI</t>
   </si>
+  <si>
+    <t>beta3.p</t>
+  </si>
+  <si>
+    <t>det time influence</t>
+  </si>
+  <si>
+    <t>betahabqi.psi</t>
+  </si>
+  <si>
+    <t>beta5.p</t>
+  </si>
+  <si>
+    <t>det time^2 influence</t>
+  </si>
+  <si>
+    <t>beta1.psi</t>
+  </si>
+  <si>
+    <t>beta2.psi</t>
+  </si>
+  <si>
+    <t>beta3.psi</t>
+  </si>
+  <si>
+    <t>beta4.psi</t>
+  </si>
+  <si>
+    <t>beta5.psi</t>
+  </si>
+  <si>
+    <t>beta6.psi</t>
+  </si>
+  <si>
+    <t>beta7.psi</t>
+  </si>
+  <si>
+    <t>occ stand density</t>
+  </si>
+  <si>
+    <t>occ fire</t>
+  </si>
+  <si>
+    <t>occ bare</t>
+  </si>
+  <si>
+    <t>occ wire</t>
+  </si>
+  <si>
+    <t>occ wood</t>
+  </si>
+  <si>
+    <t>occ midhard</t>
+  </si>
+  <si>
+    <t>logit</t>
+  </si>
+  <si>
+    <t>probability of occurrence and detection</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>BA1 ***</t>
+  </si>
+  <si>
+    <t>FIRE1 ***</t>
+  </si>
+  <si>
+    <t>WIRE1**</t>
+  </si>
+  <si>
+    <t>FORB1</t>
+  </si>
+  <si>
+    <t>WOOD1</t>
+  </si>
+  <si>
+    <t>BARE1</t>
+  </si>
+  <si>
+    <t>MIDHARD1</t>
+  </si>
+  <si>
+    <t>occ habitat index</t>
+  </si>
+  <si>
+    <t>U95</t>
+  </si>
+  <si>
+    <t>L95</t>
+  </si>
+  <si>
+    <t>HABQI</t>
+  </si>
+  <si>
+    <t>PREDOCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -578,6 +686,10 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -922,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -1288,4 +1400,6538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:R47"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-6.2478973333333299</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.62824096626755199</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-7.5410500000000003</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-6.6512500000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-6.1914999999999996</v>
+      </c>
+      <c r="H4" s="7">
+        <v>-5.8150000000000004</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-5.0968999999999998</v>
+      </c>
+      <c r="J4">
+        <v>1.0195858645220699</v>
+      </c>
+      <c r="K4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.42304603333333302</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.9500914986092701E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.33269499853413598</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.3896</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.41839999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.52560249976815099</v>
+      </c>
+      <c r="J5">
+        <v>1.01690267531437</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.98316955E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.2743578948166</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-0.49630999999999997</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.14485000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.21707499999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.5828025</v>
+      </c>
+      <c r="J8">
+        <v>1.0050021081562699</v>
+      </c>
+      <c r="K8">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.2008186666666698</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.40453708672555699</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.93</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.4562499618372402</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.04802499600234</v>
+      </c>
+      <c r="J9">
+        <v>1.0034347338126599</v>
+      </c>
+      <c r="K9">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>-0.54397528456666699</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.219765208547578</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-0.96280250000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.69007499999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-0.54254999999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-0.3957</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-0.1036975</v>
+      </c>
+      <c r="J10">
+        <v>1.0019880488445401</v>
+      </c>
+      <c r="K10">
+        <v>1700</v>
+      </c>
+      <c r="R10">
+        <f>500/60</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-8.0709924899999994E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.19617422174924201</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-0.475825</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.21124999999999999</v>
+      </c>
+      <c r="G11" s="7">
+        <v>-7.8179999999999999E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5.4427499999999997E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.2928325</v>
+      </c>
+      <c r="J11">
+        <v>1.0009271302298299</v>
+      </c>
+      <c r="K11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
+        <v>-0.51232145666666695</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.17608596211527699</v>
+      </c>
+      <c r="E12" s="7">
+        <v>-0.8570025</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.62412500000000004</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-0.50560000000000005</v>
+      </c>
+      <c r="H12" s="7">
+        <v>-0.39389999999999997</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-0.1794975</v>
+      </c>
+      <c r="J12">
+        <v>1.00055092530391</v>
+      </c>
+      <c r="K12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>260.515266666667</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23.610716540886301</v>
+      </c>
+      <c r="E13" s="7">
+        <v>221.097499448615</v>
+      </c>
+      <c r="F13" s="7">
+        <v>243.77499615371499</v>
+      </c>
+      <c r="G13" s="7">
+        <v>258.2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="I13" s="7">
+        <v>311.20499843414598</v>
+      </c>
+      <c r="J13">
+        <v>1.0006073413722401</v>
+      </c>
+      <c r="K13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="L16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <f>EXP(C4)/(1+EXP(C4))</f>
+        <v>1.9307823759419768E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:I17" si="0">EXP(D4)/(1+EXP(D4))</f>
+        <v>0.65209049972200872</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3055830558292126E-4</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2907374320973285E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0425736715666129E-3</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9736115894046832E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0785016595009704E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:I25" si="1">EXP(C5)/(1+EXP(C5))</f>
+        <v>0.60421190864164898</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51237270240512445</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.58241496664938008</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59618640373270659</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60310032059639773</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6117561182200727</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.62845688217073759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.50974739999999996</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6.7308265421898203E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.37837496773587398</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.46384999191432802</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.55402499830794005</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="J19">
+        <v>1.00464273189472</v>
+      </c>
+      <c r="K19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
+        <v>123.71833333333301</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6.2336145110344798</v>
+      </c>
+      <c r="E20" s="7">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7">
+        <v>119</v>
+      </c>
+      <c r="G20" s="7">
+        <v>123</v>
+      </c>
+      <c r="H20" s="7">
+        <v>127</v>
+      </c>
+      <c r="I20" s="7">
+        <v>138</v>
+      </c>
+      <c r="J20">
+        <v>1.00060194913837</v>
+      </c>
+      <c r="K20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50995660751024929</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.56816244738000787</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37840822353801612</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.46385068354989739</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51039850044084045</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.55405664707910218</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.64171200628907676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90032300333091142</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59977725421287498</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80999843398468696</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8732494198778592</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89880347606866751</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92101729876129756</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95469718333103282</v>
+      </c>
+      <c r="L22" s="7">
+        <f>C22-(1.96*D22)</f>
+        <v>-0.27524041492632356</v>
+      </c>
+      <c r="M22">
+        <f>C22+(D22*1.96)</f>
+        <v>2.0758864215881463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36726331528303724</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.55472124105235232</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27631743869295772</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33401638933241912</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36759458691315949</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40234589809929461</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4740988308175863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47983346480875583</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54888687437450545</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3832384741381612</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44738303082049924</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48046494902216158</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51360351696446005</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57268943398102146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37464947976922353</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54390809693641573</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29796598951263481</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3488438668822037</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37622555331635898</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40277880869578819</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45524572334130914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" ref="C26:I26" si="2">EXP(C13)/(1+EXP(C13))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.9999999999442819</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1.8777159747987301E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2.8694011607176802E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4.3825291317692904E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>6.6882263509411904E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1.01945554983527E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1.55103883076408E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2.35322002795279E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>3.5552984199976503E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>5.33785886070543E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>7.9405774488908398E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0.11656105196887</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>0.16793050479544799</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>0.23589391073170099</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>0.32075959609389398</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>0.41939878243100298</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>0.52492914576954197</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>0.62827896206207601</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>0.72109141983468095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-4.8621243333333304</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.88697432170103296</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-6.55905</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-5.49925</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-4.8019999999999996</v>
+      </c>
+      <c r="H4" s="7">
+        <v>-4.2160000000000002</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-3.3079749999999999</v>
+      </c>
+      <c r="J4">
+        <v>1.0197934773236501</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.1744404393333301</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.32308257323361</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.95324999606581495</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.3882499324851401</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.81404997314518</v>
+      </c>
+      <c r="J5">
+        <v>1.00374966316119</v>
+      </c>
+      <c r="K5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.788888</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.43516797658522799</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="J6">
+        <v>1.0044784436502701</v>
+      </c>
+      <c r="K6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.57986058740000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.30407022836383202</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-1.9987499999999998E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.37724999999999997</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.78872500000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="J7">
+        <v>1.00158282550038</v>
+      </c>
+      <c r="K7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.13268370676666699</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.62406465829818103</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-1.06125</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.29349999999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.1043</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.436175</v>
+      </c>
+      <c r="J8">
+        <v>1.0145100336406501</v>
+      </c>
+      <c r="K8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5.2712689E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.35484880844494798</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-0.64194249999999997</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-0.18</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.5109999999999999E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.28994999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.75431749999999997</v>
+      </c>
+      <c r="J9">
+        <v>1.0005957130052801</v>
+      </c>
+      <c r="K9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.31339338301000003</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.44404265436366303</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-0.52434749999999997</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7.1180000000000002E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.61472499999999997</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.214</v>
+      </c>
+      <c r="J10">
+        <v>1.0044424571767001</v>
+      </c>
+      <c r="K10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.15747533886666701</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.400157448475574</v>
+      </c>
+      <c r="E11" s="7">
+        <v>-0.62536250000000004</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.10970000000000001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.15645000000000001</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.96482250000000003</v>
+      </c>
+      <c r="J11">
+        <v>1.00633998472921</v>
+      </c>
+      <c r="K11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.48657803333333299</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6.6628277454729504E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.35828999455362998</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.441349991502058</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.48644999743036299</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.53192499823764405</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.61981249508670899</v>
+      </c>
+      <c r="J12">
+        <v>1.0012488889315201</v>
+      </c>
+      <c r="K12">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>128.57900000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.7945286724562104</v>
+      </c>
+      <c r="E13" s="7">
+        <v>116</v>
+      </c>
+      <c r="F13" s="7">
+        <v>123</v>
+      </c>
+      <c r="G13" s="7">
+        <v>128</v>
+      </c>
+      <c r="H13" s="7">
+        <v>133</v>
+      </c>
+      <c r="I13" s="7">
+        <v>146</v>
+      </c>
+      <c r="J13">
+        <v>1.00317202373579</v>
+      </c>
+      <c r="K13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-5.4670084360000003E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.27147128226563899</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-0.58264499999999997</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.23577500000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>-5.4195E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.12795000000000001</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.48875249999999998</v>
+      </c>
+      <c r="J14">
+        <v>1.0011478086211401</v>
+      </c>
+      <c r="K14">
+        <v>3000</v>
+      </c>
+      <c r="O14" s="7">
+        <f>C4+C5</f>
+        <v>-3.6876838940000001</v>
+      </c>
+      <c r="P14" s="7">
+        <f>SUM(C4:C11)</f>
+        <v>0.33732981104333404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.0878901999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.39277315407345997</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.3878747799625299</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2.343</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.9130249958171102</v>
+      </c>
+      <c r="J15">
+        <v>1.00057714973887</v>
+      </c>
+      <c r="K15">
+        <v>3000</v>
+      </c>
+      <c r="O15">
+        <f>EXP(O14)/(1+EXP(O14))</f>
+        <v>2.4418708867997675E-2</v>
+      </c>
+      <c r="P15">
+        <f>EXP(P14)/(1+EXP(P14))</f>
+        <v>0.58354175665328312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-0.649036573666667</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.21058167589124999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-1.0620499999999999</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-0.79407499999999998</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-0.65575000000000006</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-0.51037500000000002</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-0.2268425</v>
+      </c>
+      <c r="J16">
+        <v>1.0021179449944599</v>
+      </c>
+      <c r="K16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.23506515333333E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.19222413880043701</v>
+      </c>
+      <c r="E17" s="7">
+        <v>-0.37206499999999998</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-0.114925</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.345E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.14472499999999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="J17">
+        <v>1.00269616841357</v>
+      </c>
+      <c r="K17">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-0.51006495533333296</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.17058330816391401</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-0.85010249999999998</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-0.619425</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-0.50754999999999995</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-0.3967</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-0.1677775</v>
+      </c>
+      <c r="J18">
+        <v>1.0005420854304301</v>
+      </c>
+      <c r="K18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7">
+        <v>275.87976666666702</v>
+      </c>
+      <c r="D19" s="7">
+        <v>26.7457141430279</v>
+      </c>
+      <c r="E19" s="7">
+        <v>229.29249521229499</v>
+      </c>
+      <c r="F19" s="7">
+        <v>256.3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="H19" s="7">
+        <v>293.3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>334.5</v>
+      </c>
+      <c r="J19">
+        <v>1.00341131132723</v>
+      </c>
+      <c r="K19">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7">
+        <f>EXP(C4)/(1+EXP(C4))</f>
+        <v>7.6746804946084988E-3</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" ref="D21:I21" si="0">EXP(D4)/(1+EXP(D4))</f>
+        <v>0.70826538436818787</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4152257384798972E-3</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0731790257319935E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>8.1463951832761016E-3</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4542938586370565E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5298610907314544E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:I36" si="1">EXP(C5)/(1+EXP(C5))</f>
+        <v>0.76394670793135067</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5800753146209604</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.63367145136377379</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72176830855551066</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.76386727333268167</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80031270786202136</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.85985063812778262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9420723904808237</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60710705592460856</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87984889251320508</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92322543174799865</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94136504627197215</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95563817241084359</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97603724507945189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.64103532686654618</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57543721520076785</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.49500329134771637</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59320966552369336</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6404574136938731</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.68755749781726527</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.76350633484915964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53312234779303025</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.65114242626518359</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25707065054876893</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.42714722585601006</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.52605138763412673</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6301825421207895</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80786162933129857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51317512166156798</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.58779290640324111</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34480756671138357</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45512110762641994</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51377401407438106</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5719838920596142</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.68011873213742113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57771333059348629</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6092218916454657</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37183620601731421</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50177949248670373</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57703170756588185</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.64901788355262358</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77100593762345071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53928767868595751</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59872548821274973</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34856281910817916</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47260246985285959</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53903291636175987</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60484640204939577</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72408631028608006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7">
+        <f>C12</f>
+        <v>0.48657803333333299</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" ref="D29:I29" si="2">D12</f>
+        <v>6.6628277454729504E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35828999455362998</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.441349991502058</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.48644999743036299</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.53192499823764405</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.61981249508670899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" ref="C30:I30" si="3">C13</f>
+        <v>128.57900000000001</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="3"/>
+        <v>7.7945286724562104</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48633588203743261</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.56745406690030742</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35832420655800162</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4413277967635818</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48645456519353741</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53194393183826594</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.61981250922186681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88972058671382337</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59695010105509727</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8002527471283174</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.85924097178487469</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88695416992792109</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91237621962827264</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94848656590131786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34320667607826622</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.55245173263355662</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25691789197960779</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31129435831647889</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34169496029161561</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37510562089277733</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44353131246844352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50308762363495263</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54790860640657424</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4080421391627016</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47130033123300169</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50336244931052898</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53611822965630718</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59389722149176871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37517829860857238</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54254271568455825</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29941135625388249</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34991223749221001</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37576803810890397</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4021054579229188</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45815374084969285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99999999999757627</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J132"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="7">
+        <v>-10.052642333333299</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.1462470333333299</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.78435233333333</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.595644066366667</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.19402925693333301</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-2.6631460204999999E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.30582424786000001</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.14462409228666701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="0">C5*$C$3+D5*$D$3+E5*$E$3+F5*$F$3+G5*$G$3+H5*$H$3+I5*$I$3+J5*$J$3</f>
+        <v>-5.0759505601533057</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" ref="B5:B68" si="1">EXP(A5)/(1+EXP(A5))</f>
+        <v>6.2063874259434375E-3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>-4.8819213032199729</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5253712580377686E-3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>-5.1025820203583061</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0442695930841214E-3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>-4.9085527634249733</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
+        <v>7.3290541686552944E-3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>-5.3817748080133061</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
+        <v>4.578591260892966E-3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>-5.1877455510799733</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
+        <v>5.553568427621251E-3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>-5.4084062682183065</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
+        <v>4.4588025263418186E-3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>-5.2143770112849737</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
+        <v>5.4084101604222569E-3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>-5.6715946265199726</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4305623297055049E-3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>-5.4775653695866398</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>4.1620973852915903E-3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>-5.698226086724973</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3407084363718952E-3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>-5.5041968297916402</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>4.053160924722213E-3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>-5.977418874379973</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5289501376670135E-3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>-5.7833896174466402</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>3.068816941089624E-3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>-6.0040503345849734</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4626530736140692E-3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>-5.8100210776516406</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9884095344000381E-3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>-6.2221975934866354</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9809465267620892E-3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>-6.0281683365533025</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4041103962488502E-3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>-6.2488290536916358</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9289877330283805E-3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>-6.0547997967583029</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3410783563379742E-3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>-6.5280218413466358</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4597608344954142E-3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>-6.3339925844133029</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7717882279727941E-3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>-6.5546533015516362</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
+        <v>1.421452893983503E-3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>-6.3606240446183033</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7253060211047859E-3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>-6.8178416598533023</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0928840697055646E-3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>-6.6238124029199694</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3265948559737942E-3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>-6.8444731200583027</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="1"/>
+        <v>1.064193673790135E-3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>-6.6504438631249698</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2917770179970414E-3</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>-7.1236659077133027</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="1"/>
+        <v>8.0515851205915034E-4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>-6.9296366507799698</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" si="1"/>
+        <v>9.7740004333598455E-4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>-7.1502973679183031</v>
+      </c>
+      <c r="B35" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8401555991602109E-4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>-6.9562681109849702</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5173844590145588E-4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>-7.8603028934866357</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="1"/>
+        <v>3.8560825929956935E-4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>-7.666273636553302</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6814059674801003E-4</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>-7.8869343536916352</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7547829082020819E-4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>-7.6929050967583015</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5584348401855066E-4</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>-8.1661271413466352</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8403553135502012E-4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>-7.9720978844133024</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4483559888375236E-4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>-8.1927586015516347</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7657315057340976E-4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>-7.9987293446183019</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3577637258141378E-4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>-8.4559469598533017</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1258693032202795E-4</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>-8.261917702919968</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5809680427791367E-4</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>-8.4825784200583012</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0700130863831372E-4</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>-8.2885491631249675</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="1"/>
+        <v>2.513157326193254E-4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>-8.7617712077133021</v>
+      </c>
+      <c r="B49" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5658245739417974E-4</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>-8.5677419507799684</v>
+      </c>
+      <c r="B50" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9010536740673493E-4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>-8.7884026679183016</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5246810251277738E-4</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>-8.5943734109849679</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8511032885631948E-4</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>-9.0065499268199645</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2258909043857136E-4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>-8.8125206698866307</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="1"/>
+        <v>1.488354065879988E-4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>-9.033181387024964</v>
+      </c>
+      <c r="B55" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1936783737779153E-4</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>-8.8391521300916303</v>
+      </c>
+      <c r="B56" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4492458342250383E-4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>-9.3123741746799649</v>
+      </c>
+      <c r="B57" s="8">
+        <f t="shared" si="1"/>
+        <v>9.0291749398245668E-5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>-9.1183449177466311</v>
+      </c>
+      <c r="B58" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0962396509566932E-4</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>-9.3390056348849644</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" si="1"/>
+        <v>8.7919093551695534E-5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>-9.1449763779516307</v>
+      </c>
+      <c r="B60" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0674335809869507E-4</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>-9.6021939931866314</v>
+      </c>
+      <c r="B61" s="8">
+        <f t="shared" si="1"/>
+        <v>6.757573620630679E-5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>-9.4081647362532976</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="1"/>
+        <v>8.2044663325315807E-5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>-9.6288254533916309</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5799964738560656E-5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>-9.4347961964582971</v>
+      </c>
+      <c r="B64" s="8">
+        <f t="shared" si="1"/>
+        <v>7.9888704283902348E-5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>-9.9080182410466318</v>
+      </c>
+      <c r="B65" s="8">
+        <f t="shared" si="1"/>
+        <v>4.9771500653216606E-5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>-9.713988984113298</v>
+      </c>
+      <c r="B66" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0428517859650098E-5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>-9.9346497012516313</v>
+      </c>
+      <c r="B67" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8463570498565611E-5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>-9.7406204443182975</v>
+      </c>
+      <c r="B68" s="8">
+        <f t="shared" si="1"/>
+        <v>5.8840551664649528E-5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ref="A69:A132" si="2">C69*$C$3+D69*$D$3+E69*$E$3+F69*$F$3+G69*$G$3+H69*$H$3+I69*$I$3+J69*$J$3</f>
+        <v>-5.2205746524399723</v>
+      </c>
+      <c r="B69" s="8">
+        <f t="shared" ref="B69:B132" si="3">EXP(A69)/(1+EXP(A69))</f>
+        <v>5.3751740466977489E-3</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>-5.0265453955066395</v>
+      </c>
+      <c r="B70" s="8">
+        <f t="shared" si="3"/>
+        <v>6.5186668056881258E-3</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>-5.2472061126449727</v>
+      </c>
+      <c r="B71" s="8">
+        <f t="shared" si="3"/>
+        <v>5.2346540780948275E-3</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>-5.0531768557116399</v>
+      </c>
+      <c r="B72" s="8">
+        <f t="shared" si="3"/>
+        <v>6.3484439917849108E-3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>-5.5263989002999727</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" si="3"/>
+        <v>3.9645168040385974E-3</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>-5.3323696433666399</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="3"/>
+        <v>4.8093631316193305E-3</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>-5.5530303605049731</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="3"/>
+        <v>3.8607316608380042E-3</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>-5.3590011035716403</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" si="3"/>
+        <v>4.6835651681585129E-3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>-5.8162187188066392</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9700005571716625E-3</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>-5.6221894618733064</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" si="3"/>
+        <v>3.6036802967388815E-3</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>-5.8428501790116396</v>
+      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="3"/>
+        <v>2.8921747702424809E-3</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>-5.6488209220783068</v>
+      </c>
+      <c r="B80" s="8">
+        <f t="shared" si="3"/>
+        <v>3.5093080342519386E-3</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>-6.1220429666666396</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1891662123411791E-3</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>-5.9280137097333068</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="3"/>
+        <v>2.6566909457961399E-3</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>-6.14867442687164</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="3"/>
+        <v>2.131757632548999E-3</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>-5.9546451699383072</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="3"/>
+        <v>2.5870538097035778E-3</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>-6.366821685773302</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="3"/>
+        <v>1.7146645382241086E-3</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>-6.1727924288399691</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="3"/>
+        <v>2.0810646569455154E-3</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>-6.3934531459783024</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6696784435122978E-3</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>-6.1994238890449695</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="3"/>
+        <v>2.026485169280902E-3</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>-6.6726459336333024</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2634487660031055E-3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>-6.4786166766999695</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5335784284871003E-3</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>-6.6992773938383028</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2302862199992451E-3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>-6.5052481369049699</v>
+      </c>
+      <c r="B92" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4933362183995752E-3</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>-6.9624657521399689</v>
+      </c>
+      <c r="B93" s="8">
+        <f t="shared" si="3"/>
+        <v>9.4586371528952154E-4</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>-6.768436495206636</v>
+      </c>
+      <c r="B94" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1481706692633748E-3</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>-6.9890972123449693</v>
+      </c>
+      <c r="B95" s="8">
+        <f t="shared" si="3"/>
+        <v>9.2102933948998904E-4</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>-6.7950679554116364</v>
+      </c>
+      <c r="B96" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1180305138354578E-3</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>-7.2682899999999693</v>
+      </c>
+      <c r="B97" s="8">
+        <f t="shared" si="3"/>
+        <v>6.9681747043421043E-4</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>-7.0742607430666364</v>
+      </c>
+      <c r="B98" s="8">
+        <f t="shared" si="3"/>
+        <v>8.4590203487899449E-4</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>-7.2949214602049697</v>
+      </c>
+      <c r="B99" s="8">
+        <f t="shared" si="3"/>
+        <v>6.7851755345203313E-4</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>-7.1008922032716368</v>
+      </c>
+      <c r="B100" s="8">
+        <f t="shared" si="3"/>
+        <v>8.2369006562898475E-4</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>-8.0049269857733023</v>
+      </c>
+      <c r="B101" s="8">
+        <f t="shared" si="3"/>
+        <v>3.3370247882082361E-4</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>-7.8108977288399686</v>
+      </c>
+      <c r="B102" s="8">
+        <f t="shared" si="3"/>
+        <v>4.051298435947726E-4</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>-8.0315584459783018</v>
+      </c>
+      <c r="B103" s="8">
+        <f t="shared" si="3"/>
+        <v>3.249356372691939E-4</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>-7.8375291890449681</v>
+      </c>
+      <c r="B104" s="8">
+        <f t="shared" si="3"/>
+        <v>3.944872434804088E-4</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>-8.3107512336333027</v>
+      </c>
+      <c r="B105" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4579884428583968E-4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>-8.116721976699969</v>
+      </c>
+      <c r="B106" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9841648762602698E-4</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>-8.3373826938383022</v>
+      </c>
+      <c r="B107" s="8">
+        <f t="shared" si="3"/>
+        <v>2.3934080407124868E-4</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>-8.1433534369049685</v>
+      </c>
+      <c r="B108" s="8">
+        <f t="shared" si="3"/>
+        <v>2.9057639008911977E-4</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>-8.6005710521399692</v>
+      </c>
+      <c r="B109" s="8">
+        <f t="shared" si="3"/>
+        <v>1.8396683964753919E-4</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>-8.4065417952066355</v>
+      </c>
+      <c r="B110" s="8">
+        <f t="shared" si="3"/>
+        <v>2.233511924287395E-4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>-8.6272025123449687</v>
+      </c>
+      <c r="B111" s="8">
+        <f t="shared" si="3"/>
+        <v>1.7913306266255493E-4</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>-8.433173255411635</v>
+      </c>
+      <c r="B112" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1748280633995863E-4</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>-8.9063952999999696</v>
+      </c>
+      <c r="B113" s="8">
+        <f t="shared" si="3"/>
+        <v>1.355010985523962E-4</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>-8.7123660430666359</v>
+      </c>
+      <c r="B114" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6451141994340953E-4</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>-8.9330267602049691</v>
+      </c>
+      <c r="B115" s="8">
+        <f t="shared" si="3"/>
+        <v>1.3194060358150266E-4</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>-8.7389975032716354</v>
+      </c>
+      <c r="B116" s="8">
+        <f t="shared" si="3"/>
+        <v>1.6018875731332936E-4</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>-9.151174019106632</v>
+      </c>
+      <c r="B117" s="8">
+        <f t="shared" si="3"/>
+        <v>1.060839168509902E-4</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>-8.9571447621732982</v>
+      </c>
+      <c r="B118" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2879693162050489E-4</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>-9.1778054793116315</v>
+      </c>
+      <c r="B119" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0329632267521686E-4</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>-8.9837762223782978</v>
+      </c>
+      <c r="B120" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2541257661361879E-4</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>-9.4569982669666324</v>
+      </c>
+      <c r="B121" s="8">
+        <f t="shared" si="3"/>
+        <v>7.8134691632085446E-5</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>-9.2629690100332986</v>
+      </c>
+      <c r="B122" s="8">
+        <f t="shared" si="3"/>
+        <v>9.4864226937644327E-5</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>-9.4836297271716319</v>
+      </c>
+      <c r="B123" s="8">
+        <f t="shared" si="3"/>
+        <v>7.6081470502956642E-5</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>-9.2896004702382982</v>
+      </c>
+      <c r="B124" s="8">
+        <f t="shared" si="3"/>
+        <v>9.2371428183031675E-5</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>-9.7468180854732989</v>
+      </c>
+      <c r="B125" s="8">
+        <f t="shared" si="3"/>
+        <v>5.8477028023182336E-5</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>-9.5527888285399651</v>
+      </c>
+      <c r="B126" s="8">
+        <f t="shared" si="3"/>
+        <v>7.0997930517333133E-5</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>-9.7734495456782984</v>
+      </c>
+      <c r="B127" s="8">
+        <f t="shared" si="3"/>
+        <v>5.6940340984726952E-5</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>-9.5794202887449647</v>
+      </c>
+      <c r="B128" s="8">
+        <f t="shared" si="3"/>
+        <v>6.9132236020873826E-5</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>-10.052642333333299</v>
+      </c>
+      <c r="B129" s="8">
+        <f t="shared" si="3"/>
+        <v>4.3069933444151642E-5</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>-9.8586130763999655</v>
+      </c>
+      <c r="B130" s="8">
+        <f t="shared" si="3"/>
+        <v>5.2292093728457613E-5</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>-10.079273793538299</v>
+      </c>
+      <c r="B131" s="8">
+        <f t="shared" si="3"/>
+        <v>4.1938104353517544E-5</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>-9.885244536604965</v>
+      </c>
+      <c r="B132" s="8">
+        <f t="shared" si="3"/>
+        <v>5.0917929046518604E-5</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:J85">
+    <sortState ref="A5:J132">
+      <sortCondition descending="1" ref="B4:B85"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bacs_site_occ.xlsx
+++ b/bacs_site_occ.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="19875" windowHeight="9120" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="510" windowWidth="19875" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bacs_site_occ" sheetId="1" r:id="rId1"/>
     <sheet name="bacs_habi_date_time" sheetId="2" r:id="rId2"/>
     <sheet name="bacs_hab_date_time" sheetId="4" r:id="rId3"/>
     <sheet name="combinations" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">combinations!$A$4:$J$85</definedName>
@@ -1035,7 +1036,7 @@
   <dimension ref="A3:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1408,7 @@
   <dimension ref="A3:R47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C21:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,4 +7935,16 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>